--- a/4 Dages Prøve/Excel/Planoversigt.xlsx
+++ b/4 Dages Prøve/Excel/Planoversigt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Thomas Boeriis\4 Dages Prøve\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\SkoleProjekt\4 Dages Prøve\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Start</t>
   </si>
@@ -97,12 +97,6 @@
     <t>Find inspiration på themeforrest.net</t>
   </si>
   <si>
-    <t>Mock up af Mobile Layout</t>
-  </si>
-  <si>
-    <t>Mock up af Desktop layout</t>
-  </si>
-  <si>
     <t>Install Ruby</t>
   </si>
   <si>
@@ -112,32 +106,72 @@
     <t>Find inspiration på uden for Pinterest</t>
   </si>
   <si>
-    <t>Install Brackets Mark 33</t>
-  </si>
-  <si>
     <t>Sæt op boilerplate til Foundation</t>
   </si>
   <si>
     <t>.NET C#</t>
   </si>
   <si>
-    <t>Sæt op HTML/SASS/CSS for websitet.</t>
-  </si>
-  <si>
     <t>Forside Layout</t>
   </si>
   <si>
     <t>1280 Px Wide Grid</t>
+  </si>
+  <si>
+    <t>2 Collum Layout</t>
+  </si>
+  <si>
+    <t>Nyheds side,  Projekt</t>
+  </si>
+  <si>
+    <t>Galleri</t>
+  </si>
+  <si>
+    <t>Kontakt Layout</t>
+  </si>
+  <si>
+    <t>Grid Galleri Layout</t>
+  </si>
+  <si>
+    <t>Mock up af Desktop layout Forside</t>
+  </si>
+  <si>
+    <t>Mock up af Mobile Layout Forside</t>
+  </si>
+  <si>
+    <t>Install Brackets Mark 34</t>
+  </si>
+  <si>
+    <t>Brevpapir, logo, visitkort, preview</t>
+  </si>
+  <si>
+    <t>Time Estimering</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Font awesome.sass install</t>
+  </si>
+  <si>
+    <t>Sæt op HTML/SASS/CSS for basic</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Skole Uge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -207,6 +241,22 @@
       <name val="Century Gothic"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +288,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +357,18 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -316,7 +378,32 @@
     <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -548,9 +635,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Weekly Planner Tables" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstColumn" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -850,609 +937,6 @@
     </xdr:grpSp>
     <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>211</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>619124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1323974</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>41855</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Tip til angivelse af data" descr="Dobbeltklik på projektet for at få vist og angive tilknyttede opgaver.&#10;&#10;Dette tip udskrives ikke og kan slettes. " title="Tip til angivelse af data"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="257386" y="619124"/>
-          <a:ext cx="4162213" cy="318081"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 304800"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 304800"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 304800"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 304800"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 304800"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 304800"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 304800"/>
-            <a:gd name="connsiteX12" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 304800"/>
-            <a:gd name="connsiteX13" fmla="*/ 2239944 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 426720 h 304800"/>
-            <a:gd name="connsiteX14" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 304800"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 304800"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 304800"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 304800"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 304800"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 304800"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 304800"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 426720"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 426720"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 297180 h 426720"/>
-            <a:gd name="connsiteX13" fmla="*/ 2239944 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 426720 h 426720"/>
-            <a:gd name="connsiteX14" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 426720"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 426720"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 426720"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 426720"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 297180 h 426720"/>
-            <a:gd name="connsiteX13" fmla="*/ 2239944 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 426720 h 426720"/>
-            <a:gd name="connsiteX14" fmla="*/ 2293620 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 426720"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 426720"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 297180 h 377190"/>
-            <a:gd name="connsiteX13" fmla="*/ 2594274 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 377190 h 377190"/>
-            <a:gd name="connsiteX14" fmla="*/ 2293620 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX13" fmla="*/ 2594274 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 377190 h 377190"/>
-            <a:gd name="connsiteX14" fmla="*/ 2293620 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX13" fmla="*/ 2594274 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 377190 h 377190"/>
-            <a:gd name="connsiteX14" fmla="*/ 2517555 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX12" fmla="*/ 2730449 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX13" fmla="*/ 2594274 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 377190 h 377190"/>
-            <a:gd name="connsiteX14" fmla="*/ 2517555 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 381000"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 381000"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 381000"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 381000"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 381000"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 381000"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 381000"/>
-            <a:gd name="connsiteX12" fmla="*/ 2730449 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 381000"/>
-            <a:gd name="connsiteX13" fmla="*/ 2616668 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 381000 h 381000"/>
-            <a:gd name="connsiteX14" fmla="*/ 2517555 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 381000"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 381000"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 381000"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 381000"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 381000"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 381000"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 381000"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 400050"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 400050"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 400050"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 400050"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 400050"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 400050"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 400050"/>
-            <a:gd name="connsiteX12" fmla="*/ 2730449 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 400050"/>
-            <a:gd name="connsiteX13" fmla="*/ 2616668 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 400050 h 400050"/>
-            <a:gd name="connsiteX14" fmla="*/ 2517555 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 400050"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 400050"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 400050"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 400050"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 400050"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 400050"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 400050"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX12" y="connsiteY12"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX13" y="connsiteY13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX14" y="connsiteY14"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX15" y="connsiteY15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX16" y="connsiteY16"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX17" y="connsiteY17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX18" y="connsiteY18"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX19" y="connsiteY19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX20" y="connsiteY20"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3108960" h="400050">
-              <a:moveTo>
-                <a:pt x="0" y="50801"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="0" y="22744"/>
-                <a:pt x="22744" y="0"/>
-                <a:pt x="50801" y="0"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="1813560" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1813560" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2590800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3058159" y="0"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="3086216" y="0"/>
-                <a:pt x="3108960" y="22744"/>
-                <a:pt x="3108960" y="50801"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="3108960" y="177800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3108960" y="177800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3108960" y="254000"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3108960" y="253999"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="3108960" y="282056"/>
-                <a:pt x="3086216" y="304800"/>
-                <a:pt x="3058159" y="304800"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="2730449" y="304800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2616668" y="400050"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2517555" y="304800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="50801" y="304800"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="22744" y="304800"/>
-                <a:pt x="0" y="282056"/>
-                <a:pt x="0" y="253999"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="0" y="254000"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="177800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="177800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="50801"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" tIns="91440" bIns="182880" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr lang="da-DK" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TIP! Dobbeltklik på projektet for at få vist og angive tilknyttede opgaver.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1460,13 +944,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2686051</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>542926</xdr:rowOff>
@@ -1480,7 +964,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8229600" y="200025"/>
+          <a:off x="9448800" y="200025"/>
           <a:ext cx="2381251" cy="342901"/>
           <a:chOff x="2933700" y="6505574"/>
           <a:chExt cx="2381251" cy="342901"/>
@@ -1731,630 +1215,27 @@
     </xdr:grpSp>
     <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Tip til angivelse af data" descr="Dobbeltklik i kolonnen Udført, når opgaven er fuldført.&#10;&#10;Dette tip udskrives ikke og kan slettes." title="Tip til angivelse af data"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724399" y="609600"/>
-          <a:ext cx="3381376" cy="320040"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 304800"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 304800"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 304800"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 304800"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 304800"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 304800"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 304800"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 304800"/>
-            <a:gd name="connsiteX12" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 304800"/>
-            <a:gd name="connsiteX13" fmla="*/ 2239944 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 426720 h 304800"/>
-            <a:gd name="connsiteX14" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 304800"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 304800"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 304800"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 304800"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 304800"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 304800"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 304800"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 426720"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 426720"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 297180 h 426720"/>
-            <a:gd name="connsiteX13" fmla="*/ 2239944 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 426720 h 426720"/>
-            <a:gd name="connsiteX14" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 426720"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 426720"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 426720"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 426720"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 426720"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 297180 h 426720"/>
-            <a:gd name="connsiteX13" fmla="*/ 2239944 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 426720 h 426720"/>
-            <a:gd name="connsiteX14" fmla="*/ 2293620 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 426720"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 426720"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 426720"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 426720"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 426720"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 297180 h 377190"/>
-            <a:gd name="connsiteX13" fmla="*/ 2594274 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 377190 h 377190"/>
-            <a:gd name="connsiteX14" fmla="*/ 2293620 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX13" fmla="*/ 2594274 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 377190 h 377190"/>
-            <a:gd name="connsiteX14" fmla="*/ 2293620 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX12" fmla="*/ 2849880 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX13" fmla="*/ 2594274 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 377190 h 377190"/>
-            <a:gd name="connsiteX14" fmla="*/ 2517555 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 377190"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX12" fmla="*/ 2730449 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX13" fmla="*/ 2594274 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 377190 h 377190"/>
-            <a:gd name="connsiteX14" fmla="*/ 2517555 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 377190"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 377190"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 377190"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 377190"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 377190"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 381000"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 381000"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 381000"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 381000"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 381000"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 381000"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 381000"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 381000"/>
-            <a:gd name="connsiteX12" fmla="*/ 2730449 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 381000"/>
-            <a:gd name="connsiteX13" fmla="*/ 2616668 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 381000 h 381000"/>
-            <a:gd name="connsiteX14" fmla="*/ 2517555 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 381000"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 381000"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 381000"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 381000"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 381000"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 381000"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 381000"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY0" fmla="*/ 50801 h 400050"/>
-            <a:gd name="connsiteX1" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX2" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX3" fmla="*/ 1813560 w 3108960"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX4" fmla="*/ 2590800 w 3108960"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX5" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 400050"/>
-            <a:gd name="connsiteX6" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY6" fmla="*/ 50801 h 400050"/>
-            <a:gd name="connsiteX7" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY7" fmla="*/ 177800 h 400050"/>
-            <a:gd name="connsiteX8" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY8" fmla="*/ 177800 h 400050"/>
-            <a:gd name="connsiteX9" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY9" fmla="*/ 254000 h 400050"/>
-            <a:gd name="connsiteX10" fmla="*/ 3108960 w 3108960"/>
-            <a:gd name="connsiteY10" fmla="*/ 253999 h 400050"/>
-            <a:gd name="connsiteX11" fmla="*/ 3058159 w 3108960"/>
-            <a:gd name="connsiteY11" fmla="*/ 304800 h 400050"/>
-            <a:gd name="connsiteX12" fmla="*/ 2730449 w 3108960"/>
-            <a:gd name="connsiteY12" fmla="*/ 304800 h 400050"/>
-            <a:gd name="connsiteX13" fmla="*/ 2616668 w 3108960"/>
-            <a:gd name="connsiteY13" fmla="*/ 400050 h 400050"/>
-            <a:gd name="connsiteX14" fmla="*/ 2517555 w 3108960"/>
-            <a:gd name="connsiteY14" fmla="*/ 304800 h 400050"/>
-            <a:gd name="connsiteX15" fmla="*/ 50801 w 3108960"/>
-            <a:gd name="connsiteY15" fmla="*/ 304800 h 400050"/>
-            <a:gd name="connsiteX16" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY16" fmla="*/ 253999 h 400050"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY17" fmla="*/ 254000 h 400050"/>
-            <a:gd name="connsiteX18" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY18" fmla="*/ 177800 h 400050"/>
-            <a:gd name="connsiteX19" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY19" fmla="*/ 177800 h 400050"/>
-            <a:gd name="connsiteX20" fmla="*/ 0 w 3108960"/>
-            <a:gd name="connsiteY20" fmla="*/ 50801 h 400050"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX12" y="connsiteY12"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX13" y="connsiteY13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX14" y="connsiteY14"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX15" y="connsiteY15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX16" y="connsiteY16"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX17" y="connsiteY17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX18" y="connsiteY18"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX19" y="connsiteY19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX20" y="connsiteY20"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3108960" h="400050">
-              <a:moveTo>
-                <a:pt x="0" y="50801"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="0" y="22744"/>
-                <a:pt x="22744" y="0"/>
-                <a:pt x="50801" y="0"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="1813560" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1813560" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2590800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3058159" y="0"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="3086216" y="0"/>
-                <a:pt x="3108960" y="22744"/>
-                <a:pt x="3108960" y="50801"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="3108960" y="177800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3108960" y="177800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3108960" y="254000"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3108960" y="253999"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="3108960" y="282056"/>
-                <a:pt x="3086216" y="304800"/>
-                <a:pt x="3058159" y="304800"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="2730449" y="304800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2616668" y="400050"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2517555" y="304800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="50801" y="304800"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="22744" y="304800"/>
-                <a:pt x="0" y="282056"/>
-                <a:pt x="0" y="253999"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="0" y="254000"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="177800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="177800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="50801"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" tIns="91440" bIns="182880" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr lang="da-DK" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TIP: Dobbeltklik i kolonnen Udført, når opgaven er fuldført.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projekter" displayName="Projekter" ref="B3:G10" headerRowDxfId="17">
-  <autoFilter ref="B3:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projekter" displayName="Projekter" ref="B3:G15" headerRowDxfId="18">
+  <autoFilter ref="B3:G15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="Total" dataDxfId="16" dataCellStyle="Indent"/>
-    <tableColumn id="2" name="  " totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="Total" dataDxfId="17" dataCellStyle="Indent"/>
+    <tableColumn id="2" name="  " totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Status" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Chart">
+    <tableColumn id="3" name="Status" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Chart">
       <calculatedColumnFormula>REPT("|",Projekter[[  ]]*175)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name=" Start" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="4" name=" Start" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula array="1">MIN(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[Start]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name=" Slut" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="5" name=" Slut" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula array="1">MAX(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[[Start]:[Slut]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Bemærkninger" totalsRowFunction="count" totalsRowDxfId="7" dataCellStyle="Indent"/>
+    <tableColumn id="6" name="Bemærkninger" totalsRowFunction="count" totalsRowDxfId="8" dataCellStyle="Indent"/>
   </tableColumns>
   <tableStyleInfo name="Weekly Planner Tables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2366,15 +1247,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Opgaver" displayName="Opgaver" ref="B3:G21" totalsRowShown="0" headerRowDxfId="6" headerRowCellStyle="Indent">
-  <autoFilter ref="B3:G21"/>
-  <tableColumns count="6">
-    <tableColumn id="3" name="Start" dataDxfId="5"/>
-    <tableColumn id="4" name="Slut" dataDxfId="4"/>
-    <tableColumn id="1" name="Projekt" dataDxfId="3" dataCellStyle="Indent"/>
-    <tableColumn id="2" name="Opgave" dataDxfId="2" dataCellStyle="Indent"/>
-    <tableColumn id="5" name="Udført" dataDxfId="1"/>
-    <tableColumn id="6" name="Bemærkninger" dataDxfId="0" dataCellStyle="Indent"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Opgaver" displayName="Opgaver" ref="B3:H21" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Indent">
+  <autoFilter ref="B3:H21"/>
+  <tableColumns count="7">
+    <tableColumn id="3" name="Start" dataDxfId="6"/>
+    <tableColumn id="4" name="Slut" dataDxfId="5"/>
+    <tableColumn id="1" name="Projekt" dataDxfId="4" dataCellStyle="Indent"/>
+    <tableColumn id="2" name="Opgave" dataDxfId="3" dataCellStyle="Indent"/>
+    <tableColumn id="5" name="Udført" dataDxfId="2"/>
+    <tableColumn id="8" name="Time Estimering" dataDxfId="0" dataCellStyle="Indent"/>
+    <tableColumn id="6" name="Bemærkninger" dataDxfId="1" dataCellStyle="Indent"/>
   </tableColumns>
   <tableStyleInfo name="Weekly Planner Tables" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2616,10 +1498,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2686,11 +1568,11 @@
       </c>
       <c r="C5" s="22">
         <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
-        <v>1E-4</v>
+        <v>1.0001</v>
       </c>
       <c r="D5" s="20" t="str">
         <f>REPT("|",Projekter[[  ]]*175)</f>
-        <v/>
+        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
       <c r="E5" s="11">
         <v>41596</v>
@@ -2708,11 +1590,11 @@
       </c>
       <c r="C6" s="5">
         <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
-        <v>0.50009999999999999</v>
+        <v>1.0001</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>REPT("|",Projekter[[  ]]*175)</f>
-        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
+        <v>|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
       <c r="E6" s="11">
         <v>41596</v>
@@ -2750,11 +1632,11 @@
       </c>
       <c r="C8" s="6">
         <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
-        <v>1E-4</v>
+        <v>0.25009999999999999</v>
       </c>
       <c r="D8" s="4" t="str">
         <f>REPT("|",Projekter[[  ]]*175)</f>
-        <v/>
+        <v>|||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
       <c r="E8" s="11">
         <v>41598</v>
@@ -2768,7 +1650,7 @@
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="19">
         <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
@@ -2807,6 +1689,106 @@
         <v>41601</v>
       </c>
       <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19">
+        <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f>REPT("|",Projekter[[  ]]*175)</f>
+        <v/>
+      </c>
+      <c r="E11" s="21">
+        <f t="array" ref="E11">MIN(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[Start]))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="array" ref="F11">MAX(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[[Start]:[Slut]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19">
+        <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <f>REPT("|",Projekter[[  ]]*175)</f>
+        <v/>
+      </c>
+      <c r="E12" s="21">
+        <f t="array" ref="E12">MIN(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[Start]))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="array" ref="F12">MAX(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[[Start]:[Slut]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19">
+        <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f>REPT("|",Projekter[[  ]]*175)</f>
+        <v/>
+      </c>
+      <c r="E13" s="21">
+        <f t="array" ref="E13">MIN(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[Start]))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="array" ref="F13">MAX(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[[Start]:[Slut]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19">
+        <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f>REPT("|",Projekter[[  ]]*175)</f>
+        <v/>
+      </c>
+      <c r="E14" s="21">
+        <f t="array" ref="E14">MIN(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[Start]))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="array" ref="F14">MAX(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[[Start]:[Slut]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19">
+        <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f>REPT("|",Projekter[[  ]]*175)</f>
+        <v/>
+      </c>
+      <c r="E15" s="21">
+        <f t="array" ref="E15">MIN(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[Start]))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="array" ref="F15">MAX(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[[Start]:[Slut]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2828,10 +1810,10 @@
     <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2841,16 +1823,17 @@
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -2866,11 +1849,14 @@
       <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>41596</v>
       </c>
@@ -2886,9 +1872,14 @@
       <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="23">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>41596</v>
       </c>
@@ -2899,14 +1890,17 @@
         <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="23">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>41596</v>
       </c>
@@ -2917,191 +1911,308 @@
         <v>13</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="23">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <v>41596</v>
       </c>
       <c r="C7" s="8">
-        <v>41597</v>
+        <v>41598</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>41596</v>
       </c>
       <c r="C8" s="8">
-        <v>41597</v>
+        <v>41598</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="23">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>41596</v>
       </c>
       <c r="C9" s="8">
-        <v>41597</v>
+        <v>41598</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="23">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>41598</v>
       </c>
       <c r="C10" s="8">
-        <v>41598</v>
+        <v>41599</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>41598</v>
       </c>
       <c r="C11" s="8">
-        <v>41598</v>
+        <v>41599</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="23">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>41598</v>
       </c>
       <c r="C12" s="8">
-        <v>41598</v>
+        <v>41599</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="23">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>41598</v>
+      </c>
+      <c r="C13" s="8">
+        <v>41600</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="23">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>41598</v>
+      </c>
+      <c r="C14" s="8">
+        <v>41600</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="23">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="7"/>
+    </row>
+    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>41598</v>
+      </c>
+      <c r="C15" s="8">
+        <v>41600</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="7"/>
+      <c r="G15" s="23">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
+        <v>41598</v>
+      </c>
+      <c r="C16" s="8">
+        <v>41600</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="23">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>41597</v>
+      </c>
+      <c r="C17" s="8">
+        <v>41598</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>41598</v>
+      </c>
+      <c r="C18" s="8">
+        <v>41598</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="17"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="23"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="17"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="23"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="17"/>
       <c r="E21" s="7"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="25">
+        <f>SUM(G4+G5+G6+G7+G8+G9+G10+G11+G12+G13+G14+G15+G16+G17+G18+G19)</f>
+        <v>12.187499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="26">
+        <f>5*5</f>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This project is unknown. You can click Yes and use what you typed anyway but it won't show up in the project overview unless you add it to the list on Projects Overview sheet." sqref="D19:D21 D4:D17">
-      <formula1>ProjektListe</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ups!" error="Dette projekt er ukendt. Klik på Ja, hvis du alligevel vil bruge det, du skrev. Det vises dog ikke i projektoversigten, medmindre du føjer det til listen på arket Projektoversigt." sqref="D18">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This project is unknown. You can click Yes and use what you typed anyway but it won't show up in the project overview unless you add it to the list on Projects Overview sheet." sqref="D4:D21">
       <formula1>ProjektListe</formula1>
     </dataValidation>
   </dataValidations>

--- a/4 Dages Prøve/Excel/Planoversigt.xlsx
+++ b/4 Dages Prøve/Excel/Planoversigt.xlsx
@@ -157,10 +157,10 @@
     <t>Sæt op HTML/SASS/CSS for basic</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Skole Uge</t>
+    <t>CMS System</t>
+  </si>
+  <si>
+    <t>Sæt Basic CMS op!</t>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -242,19 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="1"/>
       <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,7 +278,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,14 +351,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -379,6 +372,9 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -402,9 +398,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1247,16 +1240,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Opgaver" displayName="Opgaver" ref="B3:H21" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Indent">
-  <autoFilter ref="B3:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Opgaver" displayName="Opgaver" ref="B3:H34" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Indent">
+  <autoFilter ref="B3:H34"/>
   <tableColumns count="7">
     <tableColumn id="3" name="Start" dataDxfId="6"/>
     <tableColumn id="4" name="Slut" dataDxfId="5"/>
     <tableColumn id="1" name="Projekt" dataDxfId="4" dataCellStyle="Indent"/>
     <tableColumn id="2" name="Opgave" dataDxfId="3" dataCellStyle="Indent"/>
     <tableColumn id="5" name="Udført" dataDxfId="2"/>
-    <tableColumn id="8" name="Time Estimering" dataDxfId="0" dataCellStyle="Indent"/>
-    <tableColumn id="6" name="Bemærkninger" dataDxfId="1" dataCellStyle="Indent"/>
+    <tableColumn id="8" name="Time Estimering" dataDxfId="1" dataCellStyle="Indent"/>
+    <tableColumn id="6" name="Bemærkninger" dataDxfId="0" dataCellStyle="Indent"/>
   </tableColumns>
   <tableStyleInfo name="Weekly Planner Tables" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1501,7 +1494,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1711,7 +1704,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="19">
         <f>IFERROR((SUMIFS(Opgaver[Udført],Opgaver[Projekt],Projekter[[#This Row],[Projekt]])/COUNTIFS(Opgaver[Projekt],Projekter[[#This Row],[Projekt]]))+0.0001,0.0001)</f>
         <v>1E-4</v>
@@ -1720,15 +1715,15 @@
         <f>REPT("|",Projekter[[  ]]*175)</f>
         <v/>
       </c>
-      <c r="E12" s="21">
-        <f t="array" ref="E12">MIN(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[Start]))</f>
-        <v>0</v>
+      <c r="E12" s="24">
+        <v>41603</v>
       </c>
       <c r="F12" s="21">
-        <f t="array" ref="F12">MAX(IF((Opgaver[Projekt]=Projekter[[#This Row],[Projekt]])*(Opgaver[Start]&gt;0),Opgaver[[Start]:[Slut]]))</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>41607</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
@@ -1810,10 +1805,10 @@
     <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2192,27 +2187,126 @@
       <c r="G21" s="23"/>
       <c r="H21" s="7"/>
     </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="7"/>
+    </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="25">
-        <f>SUM(G4+G5+G6+G7+G8+G9+G10+G11+G12+G13+G14+G15+G16+G17+G18+G19)</f>
-        <v>12.187499999999998</v>
-      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="26">
-        <f>5*5</f>
-        <v>25</v>
-      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="7"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This project is unknown. You can click Yes and use what you typed anyway but it won't show up in the project overview unless you add it to the list on Projects Overview sheet." sqref="D4:D21">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This project is unknown. You can click Yes and use what you typed anyway but it won't show up in the project overview unless you add it to the list on Projects Overview sheet." sqref="D4:D34">
       <formula1>ProjektListe</formula1>
     </dataValidation>
   </dataValidations>
@@ -2246,7 +2340,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F4:F21</xm:sqref>
+          <xm:sqref>F4:F34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
